--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:40:45+00:00</t>
+    <t>2023-02-14T06:06:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:06:47+00:00</t>
+    <t>2023-02-14T06:14:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:14:37+00:00</t>
+    <t>2023-02-14T06:14:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:14:44+00:00</t>
+    <t>2023-02-14T10:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T10:08:14+00:00</t>
+    <t>2023-02-14T11:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:00:57+00:00</t>
+    <t>2023-02-14T11:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:01:25+00:00</t>
+    <t>2023-02-16T14:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:12:28+00:00</t>
+    <t>2023-02-17T05:42:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:42:44+00:00</t>
+    <t>2023-02-17T06:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:29:33+00:00</t>
+    <t>2023-02-17T06:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:55:40+00:00</t>
+    <t>2023-02-17T08:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:02:48+00:00</t>
+    <t>2023-02-17T08:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:03:26+00:00</t>
+    <t>2023-02-18T08:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:00+00:00</t>
+    <t>2023-02-18T08:11:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:48+00:00</t>
+    <t>2023-02-18T08:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:36:05+00:00</t>
+    <t>2023-02-18T10:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:10:12+00:00</t>
+    <t>2023-02-18T10:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:12:19+00:00</t>
+    <t>2023-02-18T10:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:18:24+00:00</t>
+    <t>2023-02-18T11:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:11:58+00:00</t>
+    <t>2023-02-18T11:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:12:59+00:00</t>
+    <t>2023-02-18T11:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:19:13+00:00</t>
+    <t>2023-02-18T14:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:34:08+00:00</t>
+    <t>2023-02-18T15:11:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:11:10+00:00</t>
+    <t>2023-02-18T15:16:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:16:43+00:00</t>
+    <t>2023-02-20T07:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:17:54+00:00</t>
+    <t>2023-02-20T07:28:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:28:36+00:00</t>
+    <t>2023-02-20T07:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:46:41+00:00</t>
+    <t>2023-02-20T07:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:47:29+00:00</t>
+    <t>2023-02-20T08:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:02:38+00:00</t>
+    <t>2023-02-20T08:12:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:12:47+00:00</t>
+    <t>2023-02-20T09:50:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T09:50:24+00:00</t>
+    <t>2023-02-20T09:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T09:50:37+00:00</t>
+    <t>2023-02-27T06:00:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:00:31+00:00</t>
+    <t>2023-02-27T06:07:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:07:40+00:00</t>
+    <t>2023-02-27T06:39:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Codes used to represent a medication request for ART.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -348,27 +351,27 @@
         <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -390,7 +393,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>22</v>
@@ -398,26 +401,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:39:33+00:00</t>
+    <t>2023-02-27T06:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:55:00+00:00</t>
+    <t>2023-02-27T11:09:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:09:18+00:00</t>
+    <t>2023-02-27T12:02:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:02:46+00:00</t>
+    <t>2023-02-27T12:36:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:36:36+00:00</t>
+    <t>2023-02-27T13:37:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:37:14+00:00</t>
+    <t>2023-02-27T13:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:39:32+00:00</t>
+    <t>2023-02-28T10:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:46:33+00:00</t>
+    <t>2023-02-28T10:52:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:52:31+00:00</t>
+    <t>2023-03-01T07:12:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:03+00:00</t>
+    <t>2023-03-01T07:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:59+00:00</t>
+    <t>2023-03-01T07:50:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:50:24+00:00</t>
+    <t>2023-03-01T07:55:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:55:50+00:00</t>
+    <t>2023-03-01T08:26:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:26:46+00:00</t>
+    <t>2023-03-02T06:00:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:00:15+00:00</t>
+    <t>2023-03-02T06:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:01:33+00:00</t>
+    <t>2023-03-02T06:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:26+00:00</t>
+    <t>2023-03-02T06:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:57+00:00</t>
+    <t>2023-03-03T14:40:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/Richard/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:40:41+00:00</t>
+    <t>2023-03-03T14:42:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
